--- a/Numeracion_Modulos.xlsx
+++ b/Numeracion_Modulos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 640\Desktop\SIC\SIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{624F440F-37A4-4BF0-B916-BFC2A8FAF05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351FBF73-7AA2-49EB-B2A5-FDDDB4E92BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0A53FFBD-F511-4026-8155-2D23068833EF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Mantenimiento_roles</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Movimientos</t>
+  </si>
+  <si>
+    <t>Mantenimiento_Procedimientos</t>
   </si>
 </sst>
 </file>
@@ -107,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE98682-27A3-49A3-8FBB-1175892A1E0F}">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -492,6 +496,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
